--- a/Wykresy.xlsx
+++ b/Wykresy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubab\Desktop\Grafy2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC9B13B-42FC-4062-BE10-72A2949315EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68910E2-130C-4124-9899-1AB3199CE8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{93A30044-68DA-4EDA-A821-CE14C67190D3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>G 0,7</t>
+  </si>
+  <si>
+    <t>Czas</t>
   </si>
 </sst>
 </file>
@@ -1147,6 +1150,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wyszukiwanie cyklu hamiltona w nie-hamiltonowskim grafie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1199,10 +1227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$B$26:$B$33</c:f>
+              <c:f>Arkusz1!$B$26:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1221,11 +1249,8 @@
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3173,15 +3198,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>394138</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>165538</xdr:rowOff>
+      <xdr:colOff>321880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>78828</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>51238</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164224</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3506,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACDD07-7914-49F2-84FF-7581AAD7DD7D}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,6 +3768,14 @@
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>6</v>
@@ -3791,14 +3824,12 @@
         <v>6.1344919000000004</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>20</v>
+      <c r="C34">
+        <v>1812.1593256000001</v>
       </c>
     </row>
   </sheetData>
